--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_15-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_15-46.xlsx
@@ -32,33 +32,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AFROMED 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>CAPOTRIL 25MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
+    <t>CIPALAFIL 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
   </si>
   <si>
     <t>TAVONIZA 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>URIBLADON 25 MG XR TAB</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -748,11 +757,11 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>20</v>
+        <v>63.049999999999997</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
@@ -760,7 +769,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -768,13 +777,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -800,11 +809,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -812,7 +821,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -820,17 +829,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>128.66999999999999</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -838,7 +847,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -846,17 +855,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -864,7 +873,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -872,17 +881,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>82</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -890,7 +899,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -898,17 +907,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -924,17 +933,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -950,17 +959,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -968,7 +977,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -976,13 +985,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -994,7 +1003,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1002,17 +1011,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1020,7 +1029,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1028,13 +1037,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1046,7 +1055,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1054,17 +1063,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1072,7 +1081,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1080,17 +1089,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1098,7 +1107,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1106,13 +1115,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>39.899999999999999</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1124,7 +1133,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1132,17 +1141,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>80.75</v>
+        <v>85</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1150,7 +1159,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1158,13 +1167,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>-86.5</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1184,17 +1193,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>80.75</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1202,7 +1211,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1210,17 +1219,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>-23</v>
+        <v>-86.5</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1228,7 +1237,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1236,17 +1245,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1262,17 +1271,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>60</v>
+        <v>-23</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1280,7 +1289,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1288,17 +1297,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1306,7 +1315,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1314,17 +1323,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1332,7 +1341,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1340,51 +1349,129 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
+        <v>44</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
+        <v>45</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c t="s" r="N28" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
+        <v>47</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
+        <v>48</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>14</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
+        <v>49</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
+        <v>31</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="25.5" customHeight="1">
-      <c r="K28" s="10">
-        <v>905.82000000000005</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c t="s" r="A29" s="11">
-        <v>47</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c t="s" r="F29" s="12">
-        <v>48</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c t="s" r="I29" s="14">
-        <v>49</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="K31" s="10">
+        <v>1161.8699999999999</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="11">
+        <v>50</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c t="s" r="F32" s="12">
+        <v>51</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c t="s" r="I32" s="14">
+        <v>52</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="92">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1464,10 +1551,19 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:N32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
